--- a/data/trans_dic/P19C01-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.386583828516369</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4367613705852093</v>
+        <v>0.4367613705852092</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2657963681886817</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1872672673656209</v>
+        <v>0.1882697626710143</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2241213860363786</v>
+        <v>0.2220351213902823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3528248797350598</v>
+        <v>0.3496898776084604</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3867035953697835</v>
+        <v>0.3904946318677462</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2318182080572236</v>
+        <v>0.2339198525579339</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2687351032213482</v>
+        <v>0.2700031529392292</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3878036457431098</v>
+        <v>0.3877289889142673</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.47396336473809</v>
+        <v>0.4733905930819019</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2300177436499186</v>
+        <v>0.2272906685888108</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2539559003123532</v>
+        <v>0.2563850284411781</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3804485087637229</v>
+        <v>0.3820351056796171</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.444536989312007</v>
+        <v>0.4463685733292883</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2708621947212314</v>
+        <v>0.272721216415944</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2836006780445875</v>
+        <v>0.2841885446668562</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4244883973507378</v>
+        <v>0.424621200093834</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.491606561366095</v>
+        <v>0.4915312702133574</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2999862852501672</v>
+        <v>0.2980207445990289</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3289372966452758</v>
+        <v>0.3333829959167403</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4553115155895056</v>
+        <v>0.4534460809595019</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.549617491828663</v>
+        <v>0.550312777128807</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2814181542639508</v>
+        <v>0.2795681262396079</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.299445535317573</v>
+        <v>0.3012356830530867</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4279004016639962</v>
+        <v>0.4282380835583151</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5122174529643658</v>
+        <v>0.5069858951243519</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2261818149808984</v>
+        <v>0.2300587920230017</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2406527986163134</v>
+        <v>0.2418001865996384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3954654040564719</v>
+        <v>0.3968984882701799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4646643919200387</v>
+        <v>0.4628562649285336</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2774543235046765</v>
+        <v>0.2781400699995785</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3199038527837096</v>
+        <v>0.3180701735317729</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3932781286181617</v>
+        <v>0.3982949656977458</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5382757494467424</v>
+        <v>0.5416979197985686</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2632158189641545</v>
+        <v>0.2628247118179604</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2924435055441517</v>
+        <v>0.291816035327064</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4072447256894663</v>
+        <v>0.4061653282565911</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5134791818931781</v>
+        <v>0.5158818709338384</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2908367235653214</v>
+        <v>0.2921295383903708</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3048505420017566</v>
+        <v>0.3049156145915627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4698492015164601</v>
+        <v>0.4686374952645767</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5370682985823078</v>
+        <v>0.5387214460084686</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3413260198762638</v>
+        <v>0.3404866353578654</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3851699475317313</v>
+        <v>0.3812686152964467</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4619213878242207</v>
+        <v>0.4664273243068632</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5940253063268807</v>
+        <v>0.5942855096906429</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3055772220613135</v>
+        <v>0.3059376018023157</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3371815829648407</v>
+        <v>0.3388702887838473</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4559856509234801</v>
+        <v>0.4570525185580822</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5595687048339573</v>
+        <v>0.5623065517791215</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2940313108604866</v>
+        <v>0.2965338021812148</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2788902773276769</v>
+        <v>0.2816897694140399</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3704087360224446</v>
+        <v>0.3720985283292055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6282233546245209</v>
+        <v>0.6249785605728162</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2970430338736362</v>
+        <v>0.2981921741757875</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3257782469072092</v>
+        <v>0.3274980047867104</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4219113490449827</v>
+        <v>0.422194396466634</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6239590540205951</v>
+        <v>0.6256363477346719</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3063325344468418</v>
+        <v>0.3066994892639865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3142696271365243</v>
+        <v>0.3153143191279371</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.408406826284733</v>
+        <v>0.4107816350163217</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6333074715671192</v>
+        <v>0.63236675790053</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3590005007453142</v>
+        <v>0.3577477000713592</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3495524443601297</v>
+        <v>0.3503549896878227</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4469002548529026</v>
+        <v>0.4486458335051233</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6878832357257673</v>
+        <v>0.6870378995234055</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.36374370863762</v>
+        <v>0.3633456376513541</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3945976224301798</v>
+        <v>0.3969993625197863</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5007715575441861</v>
+        <v>0.5016183411468709</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6759169777566876</v>
+        <v>0.6801388220393346</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3519223596679611</v>
+        <v>0.353513412007408</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3594807034282944</v>
+        <v>0.3634726432668335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4636887846795025</v>
+        <v>0.4659204626386481</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6751312049139921</v>
+        <v>0.6741545554360332</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.4052513620877015</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6262316392962187</v>
+        <v>0.6262316392962185</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4185992230626422</v>
@@ -1105,7 +1105,7 @@
         <v>0.4148142435406068</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6196191966566547</v>
+        <v>0.6196191966566548</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3377911631568402</v>
+        <v>0.3381071699643214</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3345759610717704</v>
+        <v>0.3336196182453383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3588291455027324</v>
+        <v>0.3586295661702567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5908031431404661</v>
+        <v>0.5888445037090111</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3610125929373784</v>
+        <v>0.36632213002818</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3409560073110732</v>
+        <v>0.3440577662285421</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3731503782715668</v>
+        <v>0.3760419519289875</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5795119606473195</v>
+        <v>0.5822815666487747</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3680421703288797</v>
+        <v>0.3658938153883227</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3524272080767623</v>
+        <v>0.3501546327650598</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.384193269324201</v>
+        <v>0.3806281497926054</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5956731119874183</v>
+        <v>0.5969851158185889</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4484657505422726</v>
+        <v>0.4471751151734376</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4349298319805274</v>
+        <v>0.4334174428779718</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4581214233342793</v>
+        <v>0.4543591004002864</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6604953284071201</v>
+        <v>0.6605948876436956</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4769055758926963</v>
+        <v>0.4811537494039627</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4450195423525323</v>
+        <v>0.4411722869414401</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4668244465839573</v>
+        <v>0.4719421758531888</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6405863939853365</v>
+        <v>0.642351563229313</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4459084074120601</v>
+        <v>0.4423554001828107</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4226464238634486</v>
+        <v>0.4222331890669986</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4491569241879305</v>
+        <v>0.4501146094171626</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6410115187286827</v>
+        <v>0.6425240918219697</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.4217356115058385</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.5845668382937271</v>
+        <v>0.584566838293727</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.278136719467754</v>
+        <v>0.2786714742737003</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2781932812892505</v>
+        <v>0.2782150887488124</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3879878755713571</v>
+        <v>0.3892682657218483</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.556243567482604</v>
+        <v>0.5553324396347323</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.298080093982437</v>
+        <v>0.2976108443479721</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3261595677264347</v>
+        <v>0.3251429831008577</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4160024943296652</v>
+        <v>0.416505518778769</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5787372881244447</v>
+        <v>0.578612883828048</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2942178565296335</v>
+        <v>0.2941895798968465</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3069268213274338</v>
+        <v>0.3087138426977717</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4074722888242419</v>
+        <v>0.40876783466093</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5730850292819021</v>
+        <v>0.57316983294721</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3175923083006682</v>
+        <v>0.3144040458474655</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3129145562586974</v>
+        <v>0.3129026366968929</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4274527783076293</v>
+        <v>0.4273262851253133</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5934941978410349</v>
+        <v>0.5924744044859727</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3335244433107141</v>
+        <v>0.3319804631455084</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3598429720710167</v>
+        <v>0.3606392638507191</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4531289477682315</v>
+        <v>0.4570162386467952</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6084389100124037</v>
+        <v>0.6082052325514743</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3199747894307123</v>
+        <v>0.3202427015291688</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3318520090090014</v>
+        <v>0.3316632047551965</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4345972854717556</v>
+        <v>0.4350364368676075</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.596216741904777</v>
+        <v>0.5962037828223189</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>74142</v>
+        <v>74539</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>184988</v>
+        <v>183266</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>276743</v>
+        <v>274284</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>174900</v>
+        <v>176614</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>169368</v>
+        <v>170903</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>254350</v>
+        <v>255550</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>357832</v>
+        <v>357763</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>279256</v>
+        <v>278918</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>259120</v>
+        <v>256048</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>449975</v>
+        <v>454279</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>649455</v>
+        <v>652163</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>462975</v>
+        <v>464883</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>107238</v>
+        <v>107974</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>234081</v>
+        <v>234567</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>332953</v>
+        <v>333057</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>222346</v>
+        <v>222312</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>219172</v>
+        <v>217736</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>311330</v>
+        <v>315538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>420122</v>
+        <v>418401</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>323831</v>
+        <v>324240</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>317023</v>
+        <v>314939</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>530576</v>
+        <v>533748</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>730459</v>
+        <v>731035</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>533463</v>
+        <v>528014</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>181088</v>
+        <v>184192</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>202334</v>
+        <v>203299</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>282488</v>
+        <v>283511</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>428034</v>
+        <v>426368</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>235821</v>
+        <v>236403</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>307984</v>
+        <v>306218</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>331408</v>
+        <v>335636</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>585175</v>
+        <v>588895</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>434457</v>
+        <v>433811</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>527425</v>
+        <v>526293</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>634080</v>
+        <v>632399</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1031218</v>
+        <v>1036043</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>232852</v>
+        <v>233887</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>256310</v>
+        <v>256365</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>335621</v>
+        <v>334756</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>494730</v>
+        <v>496253</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>290108</v>
+        <v>289395</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>370818</v>
+        <v>367062</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>389253</v>
+        <v>393050</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>645782</v>
+        <v>646064</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>504377</v>
+        <v>504972</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>608111</v>
+        <v>611156</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>709969</v>
+        <v>711630</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1123780</v>
+        <v>1129278</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>262141</v>
+        <v>264372</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>217472</v>
+        <v>219655</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>265246</v>
+        <v>266456</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>643877</v>
+        <v>640552</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>246434</v>
+        <v>247387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>262609</v>
+        <v>263995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>278026</v>
+        <v>278213</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>642742</v>
+        <v>644470</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>527249</v>
+        <v>527881</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>498392</v>
+        <v>500049</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>561584</v>
+        <v>564849</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1301461</v>
+        <v>1299528</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>320064</v>
+        <v>318947</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>272573</v>
+        <v>273199</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>320021</v>
+        <v>321271</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>705024</v>
+        <v>704158</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>301771</v>
+        <v>301440</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>318084</v>
+        <v>320020</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>329993</v>
+        <v>330551</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>696264</v>
+        <v>700613</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>605717</v>
+        <v>608455</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>570091</v>
+        <v>576422</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>637600</v>
+        <v>640669</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1387409</v>
+        <v>1385402</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>114836</v>
+        <v>114944</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>151964</v>
+        <v>151529</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>154208</v>
+        <v>154122</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>561824</v>
+        <v>559961</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>100250</v>
+        <v>101724</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>141653</v>
+        <v>142941</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>160959</v>
+        <v>162206</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>510403</v>
+        <v>512842</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>227322</v>
+        <v>225995</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>306490</v>
+        <v>304514</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>330832</v>
+        <v>327762</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1091092</v>
+        <v>1093495</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>152461</v>
+        <v>152023</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>197544</v>
+        <v>196857</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>196880</v>
+        <v>195263</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>628097</v>
+        <v>628192</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>132432</v>
+        <v>133612</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>184886</v>
+        <v>183288</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>201366</v>
+        <v>203573</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>564194</v>
+        <v>565749</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>275417</v>
+        <v>273222</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>367557</v>
+        <v>367197</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>386772</v>
+        <v>387597</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1174138</v>
+        <v>1176909</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>675329</v>
+        <v>676627</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>806799</v>
+        <v>806863</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1026044</v>
+        <v>1029430</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1863037</v>
+        <v>1859985</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>801199</v>
+        <v>799938</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1021129</v>
+        <v>1017946</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1187985</v>
+        <v>1189422</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2076030</v>
+        <v>2075583</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1505193</v>
+        <v>1505048</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1851046</v>
+        <v>1861823</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2241197</v>
+        <v>2248322</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3975199</v>
+        <v>3975787</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>771129</v>
+        <v>763388</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>907496</v>
+        <v>907461</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1130410</v>
+        <v>1130075</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1987801</v>
+        <v>1984386</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>896469</v>
+        <v>892319</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1126583</v>
+        <v>1129076</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1294008</v>
+        <v>1305109</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2182574</v>
+        <v>2181736</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1636963</v>
+        <v>1638334</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2001367</v>
+        <v>2000229</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2390391</v>
+        <v>2392806</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4135652</v>
+        <v>4135562</v>
       </c>
     </row>
     <row r="24">
